--- a/riskanalysis/data/OrnekMPYSTurkce.xlsx
+++ b/riskanalysis/data/OrnekMPYSTurkce.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Müşteri</t>
   </si>
@@ -30,15 +30,9 @@
     <t>Vade</t>
   </si>
   <si>
-    <t>limit</t>
-  </si>
-  <si>
     <t>Çek Dahil Toplam Risk</t>
   </si>
   <si>
-    <t xml:space="preserve">teminat </t>
-  </si>
-  <si>
     <t>Teminat Tutarı</t>
   </si>
   <si>
@@ -96,29 +90,22 @@
     <t>Son 3 ay ortalama İade yüzdesi</t>
   </si>
   <si>
-    <t>Devir Günü</t>
-  </si>
-  <si>
-    <t>Devir Hızı</t>
-  </si>
-  <si>
-    <t>Kar yüzdesi</t>
-  </si>
-  <si>
-    <t>Kar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Son 3 ay ile son 11 aylık iade yüzdesi karşılaştırması  </t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teminat </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -172,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -199,15 +186,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -491,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,11 +489,9 @@
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="15" max="15" width="19.77734375" customWidth="1"/>
     <col min="16" max="16" width="19.21875" customWidth="1"/>
-    <col min="18" max="18" width="21.88671875" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,63 +502,51 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="6">
         <f>2770000+878000</f>
@@ -624,25 +589,10 @@
       <c r="Q2" s="9">
         <v>509429</v>
       </c>
-      <c r="R2" s="10">
-        <f t="shared" ref="R2:R10" si="2">H2/E2</f>
-        <v>1.0229949523275379</v>
-      </c>
-      <c r="S2" s="11">
-        <f>360/R2</f>
-        <v>351.90789473684208</v>
-      </c>
-      <c r="T2" s="6">
-        <v>100000</v>
-      </c>
-      <c r="U2" s="12">
-        <f t="shared" ref="U2:U10" si="3">T2/B2</f>
-        <v>2.7412280701754384E-2</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>1376000</v>
@@ -684,25 +634,10 @@
       <c r="Q3" s="9">
         <v>127143</v>
       </c>
-      <c r="R3" s="10">
-        <f t="shared" si="2"/>
-        <v>1.5460674157303371</v>
-      </c>
-      <c r="S3" s="11">
-        <f t="shared" ref="S3:S10" si="4">360/R3</f>
-        <v>232.84883720930233</v>
-      </c>
-      <c r="T3" s="5">
-        <v>29000</v>
-      </c>
-      <c r="U3" s="12">
-        <f t="shared" si="3"/>
-        <v>2.1075581395348836E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>752000</v>
@@ -744,25 +679,10 @@
       <c r="Q4" s="9">
         <v>98571</v>
       </c>
-      <c r="R4" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0898550724637683</v>
-      </c>
-      <c r="S4" s="11">
-        <f t="shared" si="4"/>
-        <v>330.31914893617017</v>
-      </c>
-      <c r="T4" s="5">
-        <v>129000</v>
-      </c>
-      <c r="U4" s="12">
-        <f t="shared" si="3"/>
-        <v>0.17154255319148937</v>
-      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5">
         <v>378000</v>
@@ -804,25 +724,10 @@
       <c r="Q5" s="9">
         <v>61429</v>
       </c>
-      <c r="R5" s="10">
-        <f t="shared" si="2"/>
-        <v>0.87906976744186049</v>
-      </c>
-      <c r="S5" s="11">
-        <f t="shared" si="4"/>
-        <v>409.52380952380952</v>
-      </c>
-      <c r="T5" s="5">
-        <v>79000</v>
-      </c>
-      <c r="U5" s="12">
-        <f t="shared" si="3"/>
-        <v>0.20899470899470898</v>
-      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5">
         <v>436000</v>
@@ -861,28 +766,13 @@
         <f t="shared" si="1"/>
         <v>67714.28571428571</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="10">
         <v>67714</v>
       </c>
-      <c r="R6" s="10">
-        <f t="shared" si="2"/>
-        <v>0.91983122362869196</v>
-      </c>
-      <c r="S6" s="11">
-        <f t="shared" si="4"/>
-        <v>391.37614678899081</v>
-      </c>
-      <c r="T6" s="5">
-        <v>72000</v>
-      </c>
-      <c r="U6" s="14">
-        <f t="shared" si="3"/>
-        <v>0.16513761467889909</v>
-      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>667000</v>
@@ -921,28 +811,13 @@
         <f t="shared" si="1"/>
         <v>79142.857142857145</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="10">
         <v>79143</v>
       </c>
-      <c r="R7" s="10">
-        <f t="shared" si="2"/>
-        <v>1.203971119133574</v>
-      </c>
-      <c r="S7" s="11">
-        <f t="shared" si="4"/>
-        <v>299.01049475262369</v>
-      </c>
-      <c r="T7" s="5">
-        <v>56000</v>
-      </c>
-      <c r="U7" s="14">
-        <f t="shared" si="3"/>
-        <v>8.395802098950525E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>829000</v>
@@ -981,28 +856,13 @@
         <f t="shared" si="1"/>
         <v>130714.28571428571</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="10">
         <v>130714</v>
       </c>
-      <c r="R8" s="10">
-        <f t="shared" si="2"/>
-        <v>0.90601092896174873</v>
-      </c>
-      <c r="S8" s="11">
-        <f t="shared" si="4"/>
-        <v>397.34620024125451</v>
-      </c>
-      <c r="T8" s="5">
-        <v>102000</v>
-      </c>
-      <c r="U8" s="14">
-        <f t="shared" si="3"/>
-        <v>0.12303980699638119</v>
-      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
         <v>667000</v>
@@ -1041,28 +901,13 @@
         <f t="shared" si="1"/>
         <v>210000</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="10">
         <v>210000</v>
       </c>
-      <c r="R9" s="10">
-        <f t="shared" si="2"/>
-        <v>0.45374149659863949</v>
-      </c>
-      <c r="S9" s="11">
-        <f t="shared" si="4"/>
-        <v>793.40329835082457</v>
-      </c>
-      <c r="T9" s="5">
-        <v>87000</v>
-      </c>
-      <c r="U9" s="14">
-        <f t="shared" si="3"/>
-        <v>0.13043478260869565</v>
-      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>659000</v>
@@ -1101,23 +946,8 @@
         <f t="shared" si="1"/>
         <v>45571.428571428572</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="10">
         <v>45571</v>
-      </c>
-      <c r="R10" s="10">
-        <f t="shared" si="2"/>
-        <v>2.0658307210031346</v>
-      </c>
-      <c r="S10" s="11">
-        <f t="shared" si="4"/>
-        <v>174.2640364188164</v>
-      </c>
-      <c r="T10" s="5">
-        <v>16000</v>
-      </c>
-      <c r="U10" s="14">
-        <f t="shared" si="3"/>
-        <v>2.4279210925644917E-2</v>
       </c>
     </row>
   </sheetData>
